--- a/sputnik/personal/ee/174ee.xlsx
+++ b/sputnik/personal/ee/174ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,17 +33,32 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплата</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,21 +89,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,42 +121,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -175,7 +137,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -184,51 +146,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -289,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,10 +251,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,7 +285,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -532,351 +460,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A4" sqref="A4:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43400</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A2" s="3">
+        <v>43435</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>8952</v>
-      </c>
-      <c r="D2" s="5"/>
+      <c r="C2" s="2">
+        <v>9002</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43435</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="3">
+        <v>43495</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>9002</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D8" si="0">SUM(C3,-C2)</f>
-        <v>50</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="C3" s="2">
+        <v>9043</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D7" si="0">SUM(C3,-C2)</f>
+        <v>41</v>
+      </c>
+      <c r="E3" s="5">
         <v>4.5</v>
       </c>
-      <c r="F3" s="20">
-        <f t="shared" ref="F3:F8" si="1">PRODUCT(D3,E3)</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43495</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F7" si="1">PRODUCT(D3,E3)</f>
+        <v>184.5</v>
+      </c>
+      <c r="G3" s="12">
+        <v>184.5</v>
+      </c>
+      <c r="H3" s="12">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A4" s="3">
+        <v>43546</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>9043</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="20">
-        <f t="shared" si="1"/>
-        <v>184.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>43546</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="C4" s="2">
         <v>9083</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E4" s="5">
         <v>4.57</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F4" s="9">
         <f t="shared" si="1"/>
         <v>182.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="G4" s="12">
+        <v>182.5</v>
+      </c>
+      <c r="H4" s="12">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A5" s="3">
         <v>43613</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C5" s="2">
         <v>9196</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E5" s="5">
         <v>4.57</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F5" s="9">
         <f t="shared" si="1"/>
         <v>516.41000000000008</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="G5" s="12">
+        <v>516.41</v>
+      </c>
+      <c r="H5" s="12">
+        <v>516.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A6" s="3">
         <v>43655</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C6" s="2">
         <v>9345</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>149</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E6" s="5">
         <v>4.49</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F6" s="9">
         <f t="shared" si="1"/>
         <v>669.01</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="G6" s="12">
+        <v>669.01</v>
+      </c>
+      <c r="H6" s="12">
+        <v>671.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
         <v>43685</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C7" s="2">
         <v>9429</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E7" s="5">
         <v>4.49</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F7" s="9">
         <f t="shared" si="1"/>
         <v>377.16</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="G7" s="12">
+        <v>377.16</v>
+      </c>
+      <c r="H7" s="12">
+        <v>379.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
         <v>43731</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C8" s="2">
         <v>9579</v>
       </c>
-      <c r="D10" s="3">
-        <f>SUM(C10,-C8)</f>
+      <c r="D8" s="2">
+        <f>SUM(C8,-C7)</f>
         <v>150</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E8" s="5">
         <v>4.49</v>
       </c>
-      <c r="F10" s="20">
-        <f>PRODUCT(D10,E10)</f>
+      <c r="F8" s="9">
+        <f>PRODUCT(D8,E8)</f>
         <v>673.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>43762</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="18">
-        <v>9779</v>
-      </c>
-      <c r="D11" s="3">
-        <f>SUM(C11,-C10)</f>
-        <v>200</v>
-      </c>
-      <c r="E11" s="21">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="20">
-        <f>PRODUCT(D11,E11)</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="G8" s="12">
+        <v>673.5</v>
+      </c>
+      <c r="H8" s="12">
+        <v>673.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="11"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="12">
+        <f>SUM(G3:G8)</f>
+        <v>2603.08</v>
+      </c>
+      <c r="H9" s="12">
+        <f>SUM(H3:H8)</f>
+        <v>2609.0099999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
+        <f>SUM(H9,-G9)</f>
+        <v>5.9299999999998363</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -886,12 +736,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -900,12 +750,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/174ee.xlsx
+++ b/sputnik/personal/ee/174ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,9 +251,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,6 +286,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -460,17 +462,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
@@ -485,7 +487,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -511,7 +513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43435</v>
       </c>
@@ -527,7 +529,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43495</v>
       </c>
@@ -555,7 +557,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43546</v>
       </c>
@@ -583,7 +585,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43613</v>
       </c>
@@ -611,7 +613,7 @@
         <v>516.41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43655</v>
       </c>
@@ -639,7 +641,7 @@
         <v>671.79</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43685</v>
       </c>
@@ -667,7 +669,7 @@
         <v>379.31</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43731</v>
       </c>
@@ -695,37 +697,65 @@
         <v>673.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="11"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43973</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9690</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(C9,-C8)</f>
+        <v>111</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F9" s="9">
+        <f>PRODUCT(D9,E9)</f>
+        <v>498.39000000000004</v>
+      </c>
+      <c r="G9" s="12">
+        <v>498.39</v>
+      </c>
+      <c r="H9" s="12">
+        <v>511.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="12">
-        <f>SUM(G3:G8)</f>
-        <v>2603.08</v>
-      </c>
-      <c r="H9" s="12">
-        <f>SUM(H3:H8)</f>
-        <v>2609.0099999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="12">
+        <f>SUM(G3:G9)</f>
+        <v>3101.47</v>
+      </c>
+      <c r="H10" s="12">
+        <f>SUM(H3:H9)</f>
+        <v>3120.8999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
-        <f>SUM(H9,-G9)</f>
-        <v>5.9299999999998363</v>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12">
+        <f>SUM(H10,-G10)</f>
+        <v>19.429999999999836</v>
       </c>
     </row>
   </sheetData>
@@ -736,12 +766,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -750,12 +780,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/174ee.xlsx
+++ b/sputnik/personal/ee/174ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -466,10 +466,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -726,36 +726,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9" t="s">
+      <c r="A10" s="3">
+        <v>44033</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9930</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(C10,-C9)</f>
+        <v>240</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="9">
+        <f>PRODUCT(D10,E10)</f>
+        <v>1130.4000000000001</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1130.4000000000001</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="12">
-        <f>SUM(G3:G9)</f>
-        <v>3101.47</v>
-      </c>
-      <c r="H10" s="12">
-        <f>SUM(H3:H9)</f>
-        <v>3120.8999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="12">
+        <f>SUM(G3:G10)</f>
+        <v>4231.87</v>
+      </c>
+      <c r="H11" s="12">
+        <f>SUM(H3:H10)</f>
+        <v>4250.8999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
-        <f>SUM(H10,-G10)</f>
-        <v>19.429999999999836</v>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12">
+        <f>SUM(H11,-G11)</f>
+        <v>19.029999999999745</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/174ee.xlsx
+++ b/sputnik/personal/ee/174ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -466,10 +466,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -754,35 +754,63 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9" t="s">
+      <c r="A11" s="3">
+        <v>44091</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10090</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(C11,-C10)</f>
+        <v>160</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="9">
+        <f>PRODUCT(D11,E11)</f>
+        <v>753.6</v>
+      </c>
+      <c r="G11" s="12">
+        <v>753.6</v>
+      </c>
+      <c r="H11" s="12">
+        <v>753.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="12">
-        <f>SUM(G3:G10)</f>
-        <v>4231.87</v>
-      </c>
-      <c r="H11" s="12">
-        <f>SUM(H3:H10)</f>
-        <v>4250.8999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="12">
+        <f>SUM(G3:G11)</f>
+        <v>4985.47</v>
+      </c>
+      <c r="H12" s="12">
+        <f>SUM(H3:H11)</f>
+        <v>5004.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12">
-        <f>SUM(H11,-G11)</f>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12">
+        <f>SUM(H12,-G12)</f>
         <v>19.029999999999745</v>
       </c>
     </row>

--- a/sputnik/personal/ee/174ee.xlsx
+++ b/sputnik/personal/ee/174ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -466,10 +466,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -782,35 +782,63 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9" t="s">
+      <c r="A12" s="3">
+        <v>44133</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10130</v>
+      </c>
+      <c r="D12" s="2">
+        <f>SUM(C12,-C11)</f>
+        <v>40</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="9">
+        <f>PRODUCT(D12,E12)</f>
+        <v>188.4</v>
+      </c>
+      <c r="G12" s="12">
+        <v>188.4</v>
+      </c>
+      <c r="H12" s="12">
+        <v>188.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="12">
-        <f>SUM(G3:G11)</f>
-        <v>4985.47</v>
-      </c>
-      <c r="H12" s="12">
-        <f>SUM(H3:H11)</f>
-        <v>5004.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="12">
+        <f>SUM(G3:G12)</f>
+        <v>5173.87</v>
+      </c>
+      <c r="H13" s="12">
+        <f>SUM(H3:H12)</f>
+        <v>5192.8999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12">
-        <f>SUM(H12,-G12)</f>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12">
+        <f>SUM(H13,-G13)</f>
         <v>19.029999999999745</v>
       </c>
     </row>

--- a/sputnik/personal/ee/174ee.xlsx
+++ b/sputnik/personal/ee/174ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -466,10 +466,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -810,35 +810,63 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9" t="s">
+      <c r="A13" s="3">
+        <v>44368</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10230</v>
+      </c>
+      <c r="D13" s="2">
+        <f>SUM(C13,-C12)</f>
+        <v>100</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="9">
+        <f>PRODUCT(D13,E13)</f>
+        <v>471</v>
+      </c>
+      <c r="G13" s="12">
+        <v>471</v>
+      </c>
+      <c r="H13" s="12">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G14" s="12">
         <f>SUM(G3:G12)</f>
         <v>5173.87</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H14" s="12">
         <f>SUM(H3:H12)</f>
         <v>5192.8999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12">
-        <f>SUM(H13,-G13)</f>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12">
+        <f>SUM(H14,-G14)</f>
         <v>19.029999999999745</v>
       </c>
     </row>

--- a/sputnik/personal/ee/174ee.xlsx
+++ b/sputnik/personal/ee/174ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -466,10 +466,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -680,14 +680,14 @@
         <v>9579</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(C8,-C7)</f>
+        <f t="shared" ref="D8:D14" si="2">SUM(C8,-C7)</f>
         <v>150</v>
       </c>
       <c r="E8" s="5">
         <v>4.49</v>
       </c>
       <c r="F8" s="9">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" ref="F8:F13" si="3">PRODUCT(D8,E8)</f>
         <v>673.5</v>
       </c>
       <c r="G8" s="12">
@@ -708,14 +708,14 @@
         <v>9690</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(C9,-C8)</f>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="E9" s="5">
         <v>4.49</v>
       </c>
       <c r="F9" s="9">
-        <f>PRODUCT(D9,E9)</f>
+        <f t="shared" si="3"/>
         <v>498.39000000000004</v>
       </c>
       <c r="G9" s="12">
@@ -736,14 +736,14 @@
         <v>9930</v>
       </c>
       <c r="D10" s="2">
-        <f>SUM(C10,-C9)</f>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="9">
-        <f>PRODUCT(D10,E10)</f>
+        <f t="shared" si="3"/>
         <v>1130.4000000000001</v>
       </c>
       <c r="G10" s="12">
@@ -764,14 +764,14 @@
         <v>10090</v>
       </c>
       <c r="D11" s="2">
-        <f>SUM(C11,-C10)</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="E11" s="5">
         <v>4.71</v>
       </c>
       <c r="F11" s="9">
-        <f>PRODUCT(D11,E11)</f>
+        <f t="shared" si="3"/>
         <v>753.6</v>
       </c>
       <c r="G11" s="12">
@@ -792,14 +792,14 @@
         <v>10130</v>
       </c>
       <c r="D12" s="2">
-        <f>SUM(C12,-C11)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E12" s="5">
         <v>4.71</v>
       </c>
       <c r="F12" s="9">
-        <f>PRODUCT(D12,E12)</f>
+        <f t="shared" si="3"/>
         <v>188.4</v>
       </c>
       <c r="G12" s="12">
@@ -820,14 +820,14 @@
         <v>10230</v>
       </c>
       <c r="D13" s="2">
-        <f>SUM(C13,-C12)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E13" s="5">
         <v>4.71</v>
       </c>
       <c r="F13" s="9">
-        <f>PRODUCT(D13,E13)</f>
+        <f t="shared" si="3"/>
         <v>471</v>
       </c>
       <c r="G13" s="12">
@@ -838,35 +838,63 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9" t="s">
+      <c r="A14" s="3">
+        <v>44445</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10467</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14" si="4">PRODUCT(D14,E14)</f>
+        <v>1175.52</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1175.52</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1175.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="12">
         <f>SUM(G3:G12)</f>
         <v>5173.87</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H15" s="12">
         <f>SUM(H3:H12)</f>
         <v>5192.8999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12">
-        <f>SUM(H14,-G14)</f>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12">
+        <f>SUM(H15,-G15)</f>
         <v>19.029999999999745</v>
       </c>
     </row>

--- a/sputnik/personal/ee/174ee.xlsx
+++ b/sputnik/personal/ee/174ee.xlsx
@@ -469,7 +469,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -875,12 +875,12 @@
         <v>9</v>
       </c>
       <c r="G15" s="12">
-        <f>SUM(G3:G12)</f>
-        <v>5173.87</v>
+        <f>SUM(G3:G14)</f>
+        <v>6820.3899999999994</v>
       </c>
       <c r="H15" s="12">
-        <f>SUM(H3:H12)</f>
-        <v>5192.8999999999996</v>
+        <f>SUM(H3:H14)</f>
+        <v>6839.42</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12">
         <f>SUM(H15,-G15)</f>
-        <v>19.029999999999745</v>
+        <v>19.030000000000655</v>
       </c>
     </row>
   </sheetData>
